--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/CONNECTICUT_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/CONNECTICUT_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D508"/>
+  <dimension ref="A1:D502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C7">
@@ -488,7 +488,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C9">
@@ -553,7 +553,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C14">
@@ -722,7 +722,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C27">
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="D28">
-        <v>0.009925558312655087</v>
+        <v>0.009925558312655089</v>
       </c>
     </row>
     <row r="29">
@@ -932,7 +932,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C44">
@@ -1098,12 +1098,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C54">
@@ -1194,7 +1194,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C61">
@@ -1246,7 +1246,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C65">
@@ -1272,7 +1272,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C67">
@@ -1324,7 +1324,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C71">
@@ -1415,12 +1415,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C78">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C91">
@@ -1625,7 +1625,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C93">
@@ -1664,7 +1664,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C96">
@@ -1690,7 +1690,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C98">
@@ -1703,7 +1703,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C99">
@@ -1755,7 +1755,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C103">
@@ -1807,7 +1807,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C107">
@@ -1833,7 +1833,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C109">
@@ -1950,7 +1950,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C118">
@@ -1976,7 +1976,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C120">
@@ -1989,7 +1989,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C121">
@@ -2202,7 +2202,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C137">
@@ -2228,7 +2228,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C139">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C148">
@@ -2389,7 +2389,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C151">
@@ -2428,7 +2428,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C154">
@@ -2441,7 +2441,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C155">
@@ -2480,7 +2480,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C158">
@@ -2558,7 +2558,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C164">
@@ -2571,7 +2571,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C165">
@@ -2584,7 +2584,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C166">
@@ -2597,7 +2597,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C167">
@@ -2649,7 +2649,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C171">
@@ -2992,7 +2992,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C197">
@@ -3153,7 +3153,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C209">
@@ -3205,7 +3205,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C213">
@@ -3257,7 +3257,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C217">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C224">
@@ -3415,7 +3415,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C228">
@@ -3428,7 +3428,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C229">
@@ -3441,7 +3441,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C230">
@@ -3467,7 +3467,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C232">
@@ -3480,7 +3480,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C233">
@@ -3493,7 +3493,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C234">
@@ -3506,7 +3506,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C235">
@@ -3558,7 +3558,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C239">
@@ -3831,7 +3831,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C260">
@@ -3883,7 +3883,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C264">
@@ -3922,7 +3922,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C267">
@@ -4065,7 +4065,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C278">
@@ -4104,7 +4104,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C281">
@@ -4117,7 +4117,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C282">
@@ -4130,7 +4130,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C283">
@@ -4143,7 +4143,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C284">
@@ -4156,7 +4156,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C285">
@@ -4176,7 +4176,7 @@
         <v>149</v>
       </c>
       <c r="D286">
-        <v>0.09243176178660049</v>
+        <v>0.09243176178660048</v>
       </c>
     </row>
     <row r="287">
@@ -4382,7 +4382,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C302">
@@ -4447,7 +4447,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C307">
@@ -4486,7 +4486,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C310">
@@ -4616,7 +4616,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C320">
@@ -4629,7 +4629,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C321">
@@ -4655,7 +4655,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerero</t>
+          <t>Ixcamilpa De Guerero</t>
         </is>
       </c>
       <c r="C323">
@@ -4694,7 +4694,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C326">
@@ -4759,7 +4759,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C331">
@@ -5019,7 +5019,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C351">
@@ -5071,7 +5071,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C355">
@@ -5110,7 +5110,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C358">
@@ -5214,7 +5214,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C366">
@@ -5240,7 +5240,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C368">
@@ -5279,7 +5279,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C371">
@@ -5396,7 +5396,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C380">
@@ -5544,7 +5544,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C391">
@@ -5570,7 +5570,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C393">
@@ -5645,7 +5645,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C398">
@@ -5697,7 +5697,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C402">
@@ -6073,7 +6073,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C429">
@@ -6112,7 +6112,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C432">
@@ -6138,7 +6138,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C434">
@@ -6151,7 +6151,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C435">
@@ -6177,7 +6177,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C437">
@@ -6229,7 +6229,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C441">
@@ -6281,7 +6281,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C445">
@@ -6307,7 +6307,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C447">
@@ -6559,7 +6559,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C466">
@@ -6585,7 +6585,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C468">
@@ -6676,7 +6676,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C475">
@@ -7045,41 +7045,6 @@
       </c>
       <c r="D502">
         <v>1</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="B504" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/CONNECTICUT_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/CONNECTICUT_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Bejucal De Ocampo</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Cintalapa</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>El Bosque</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Jiquipilas</t>
@@ -655,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -668,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -681,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -694,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -707,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -720,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -733,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -746,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -759,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -772,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -785,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -798,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -811,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -904,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -917,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1026,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1039,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1052,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1114,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Apaxco</t>
@@ -1127,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -1140,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1153,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Chicoloapan</t>
@@ -1166,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -1179,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -1192,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -1244,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1283,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -1296,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1309,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Texcaltitlán</t>
@@ -1322,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1335,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -1348,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1361,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Villa Guerero</t>
@@ -1374,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -1387,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Zumpango</t>
@@ -1400,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1431,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1444,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -1457,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1470,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>León</t>
@@ -1483,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -1496,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1509,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -1522,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tarandacuao</t>
@@ -1535,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -1548,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -1561,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -1610,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1623,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Alcozauca De Guerero</t>
@@ -1636,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -1649,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1662,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -1675,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1688,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -1701,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Coahuayutla De José María Izazaga</t>
@@ -1714,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -1727,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -1740,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -1753,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -1766,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -1779,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -1792,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Huamuxtitlán</t>
@@ -1805,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -1818,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -1831,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1844,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -1857,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -1870,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -1883,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -1896,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -1909,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1922,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -1935,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1948,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1961,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -1974,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Tixtla De Guerero</t>
@@ -1987,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -2000,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -2013,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Xochihuehuetlán</t>
@@ -2026,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Zapotitlán Tablas</t>
@@ -2039,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2070,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Almoloya</t>
@@ -2083,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -2096,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -2109,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Chapulhuacán</t>
@@ -2122,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -2135,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -2148,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Huazalingo</t>
@@ -2161,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -2174,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -2187,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -2200,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -2213,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Nicolás Flores</t>
@@ -2226,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -2239,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -2252,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -2265,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -2278,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Tianguistengo</t>
@@ -2291,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -2304,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Zempoala</t>
@@ -2317,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -2330,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2361,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -2374,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -2387,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -2400,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Etzatlán</t>
@@ -2413,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -2426,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Ixtlahuacán Del Río</t>
@@ -2439,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Jilotlán De Los Dolores</t>
@@ -2452,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -2465,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -2478,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -2491,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Mazamitla</t>
@@ -2504,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Mixtlán</t>
@@ -2517,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -2530,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -2543,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -2556,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>San Juanito De Escobedo</t>
@@ -2569,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -2582,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Teocuitatlán De Corona</t>
@@ -2595,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -2608,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -2621,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Tonila</t>
@@ -2634,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2647,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Valle De Juárez</t>
@@ -2660,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -2673,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -2686,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2717,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Aguililla</t>
@@ -2730,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -2743,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -2756,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Cotija</t>
@@ -2769,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Huaniqueo</t>
@@ -2782,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -2795,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Jiquilpan</t>
@@ -2808,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -2821,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -2834,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2847,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -2860,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -2873,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -2886,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Madero</t>
@@ -2899,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Marcos Castellanos</t>
@@ -2912,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2925,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -2938,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -2951,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -2964,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Susupuato</t>
@@ -2977,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -2990,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -3003,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Tocumbo</t>
@@ -3016,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -3029,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -3042,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -3055,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -3068,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3099,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Atlatlahucan</t>
@@ -3112,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Ayala</t>
@@ -3125,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -3138,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -3151,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Jonacatepec De Leandro Valle</t>
@@ -3164,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -3177,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Temoac</t>
@@ -3190,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -3203,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Tetela Del Volcán</t>
@@ -3216,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -3229,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -3242,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -3255,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Zacualpan De Amilpas</t>
@@ -3268,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3299,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Huajicori</t>
@@ -3312,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3343,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3374,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Asunción Ocotlán</t>
@@ -3387,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Calihualá</t>
@@ -3400,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -3413,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Fresnillo De Trujano</t>
@@ -3426,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -3439,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -3452,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Magdalena Tequisistlán</t>
@@ -3465,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Nejapa De Madero</t>
@@ -3478,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -3491,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -3504,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Putla Villa De Guerero</t>
@@ -3517,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -3530,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>San Agustín Chayuco</t>
@@ -3543,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>San Agustín Yatareni</t>
@@ -3556,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>San Antonino El Alto</t>
@@ -3569,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>San Francisco Cajonos</t>
@@ -3582,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>San Francisco Ozolotepec</t>
@@ -3595,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>San Ildefonso Villa Alta</t>
@@ -3608,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>San Jacinto Tlacotepec</t>
@@ -3621,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>San José Lachiguiri</t>
@@ -3634,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>San Juan Bautista Guelache</t>
@@ -3647,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -3660,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>San Juan Cacahuatepec</t>
@@ -3673,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>San Juan Colorado</t>
@@ -3686,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>San Juan Cotzocón</t>
@@ -3699,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>San Juan Juquila Vijanos</t>
@@ -3712,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>San Juan Mazatlán</t>
@@ -3725,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>San Juan Teposcolula</t>
@@ -3738,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>San Juan Ñumí</t>
@@ -3751,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -3764,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>San Mateo Cajonos</t>
@@ -3777,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>San Mateo Etlatongo</t>
@@ -3790,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>San Mateo Piñas</t>
@@ -3803,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>San Mateo Sindihui</t>
@@ -3816,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>San Miguel Amatitlán</t>
@@ -3829,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>San Miguel El Grande</t>
@@ -3842,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>San Miguel Quetzaltepec</t>
@@ -3855,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -3868,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>San Pedro Atoyac</t>
@@ -3881,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Teposcolula</t>
@@ -3894,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>San Sebastián Teitipac</t>
@@ -3907,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>San Vicente Coatlán</t>
@@ -3920,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Santa Ana Del Valle</t>
@@ -3933,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -3946,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Santa Catarina Quiané</t>
@@ -3959,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Santa Cruz Itundujia</t>
@@ -3972,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Santa Cruz Xitla</t>
@@ -3985,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Santa María Huazolotitlán</t>
@@ -3998,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -4011,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Santiago Chazumba</t>
@@ -4024,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -4037,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -4050,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Santiago Matatlán</t>
@@ -4063,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -4076,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Santo Domingo Teojomulco</t>
@@ -4089,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -4102,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Tlalixtac De Cabrera</t>
@@ -4115,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Totontepec Villa De Morelos</t>
@@ -4128,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Villa De Zaachila</t>
@@ -4141,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Villa Sola De Vega</t>
@@ -4154,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -4167,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4198,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Acatlán</t>
@@ -4211,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Ahuacatlán</t>
@@ -4224,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Ahuazotepec</t>
@@ -4237,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Ahuehuetitla</t>
@@ -4250,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Albino Zertuche</t>
@@ -4263,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Amixtlán</t>
@@ -4276,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Amozoc</t>
@@ -4289,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -4302,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Atzitzihuacán</t>
@@ -4315,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Axutla</t>
@@ -4328,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -4341,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -4354,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -4367,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -4380,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Chila De La Sal</t>
@@ -4393,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Chinantla</t>
@@ -4406,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -4419,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -4432,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Coxcatlán</t>
@@ -4445,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Cuapiaxtla De Madero</t>
@@ -4458,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Cuautinchán</t>
@@ -4471,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -4484,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Cuayuca De Andrade</t>
@@ -4497,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -4510,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Epatlán</t>
@@ -4523,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Francisco Z. Mena</t>
@@ -4536,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -4549,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -4562,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Honey</t>
@@ -4575,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -4588,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Huatlatlauca</t>
@@ -4601,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -4614,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Huehuetlán El Chico</t>
@@ -4627,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Huehuetlán El Grande</t>
@@ -4640,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -4653,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Ixcamilpa De Guerero</t>
@@ -4666,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -4679,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Ixtepec</t>
@@ -4692,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -4705,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Jonotla</t>
@@ -4718,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -4731,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Juan C. Bonilla</t>
@@ -4744,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -4757,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -4770,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Mixtla</t>
@@ -4783,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -4796,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -4809,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Ocoyucan</t>
@@ -4822,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Oriental</t>
@@ -4835,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Pahuatlán</t>
@@ -4848,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -4861,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -4874,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -4887,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -4900,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>San Felipe Teotlalcingo</t>
@@ -4913,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>San Gabriel Chilac</t>
@@ -4926,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>San Gregorio Atzompa</t>
@@ -4939,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>San Jerónimo Tecuanipan</t>
@@ -4952,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>San Jerónimo Xayacatlán</t>
@@ -4965,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -4978,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>San Martín Totoltepec</t>
@@ -4991,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>San Miguel Xoxtla</t>
@@ -5004,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>San Nicolás Buenos Aires</t>
@@ -5017,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>San Nicolás De Los Ranchos</t>
@@ -5030,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -5043,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -5056,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>San Pedro Yeloixtlahuaca</t>
@@ -5069,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>San Salvador El Seco</t>
@@ -5082,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Santa Isabel Cholula</t>
@@ -5095,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Santo Tomás Hueyotlipan</t>
@@ -5108,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Tecali De Herrera</t>
@@ -5121,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Tecomatlán</t>
@@ -5134,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -5147,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -5160,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Teopantlán</t>
@@ -5173,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -5186,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Tepemaxalco</t>
@@ -5199,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -5212,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -5225,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Tepeyahualco</t>
@@ -5238,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Tepeyahualco De Cuauhtémoc</t>
@@ -5251,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Tianguismanalco</t>
@@ -5264,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Tilapa</t>
@@ -5277,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -5290,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -5303,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Tlanepantla</t>
@@ -5316,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Tlapanalá</t>
@@ -5329,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -5342,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -5355,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Tochtepec</t>
@@ -5368,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Tulcingo</t>
@@ -5381,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Tzicatlacoyan</t>
@@ -5394,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Xayacatlán De Bravo</t>
@@ -5407,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -5420,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Xochiltepec</t>
@@ -5433,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -5446,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -5459,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -5472,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -5485,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -5498,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5529,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Colón</t>
@@ -5542,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -5555,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -5568,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -5581,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5612,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5643,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -5656,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>El Naranjo</t>
@@ -5669,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -5682,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -5695,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -5708,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Villa Juárez</t>
@@ -5721,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5752,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -5765,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5796,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -5809,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5840,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -5853,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -5866,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -5879,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -5892,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5923,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -5936,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -5949,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Llera</t>
@@ -5962,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -5975,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -5988,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -6001,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -6014,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6045,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -6058,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -6071,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Contla De Juan Cuamatzi</t>
@@ -6084,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -6097,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -6110,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Ixtacuixtla De Mariano Matamoros</t>
@@ -6123,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>La Magdalena Tlaltelulco</t>
@@ -6136,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Mazatecochco De José María Morelos</t>
@@ -6149,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Nanacamilpa De Mariano Arista</t>
@@ -6162,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Natívitas</t>
@@ -6175,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Papalotla De Xicohténcatl</t>
@@ -6188,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>San Francisco Tetlanohcan</t>
@@ -6201,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>San Jerónimo Zacualpan</t>
@@ -6214,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>San Juan Huactzinco</t>
@@ -6227,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>San Pablo Del Monte</t>
@@ -6240,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Santa Apolonia Teacalco</t>
@@ -6253,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Santa Catarina Ayometla</t>
@@ -6266,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Teolocholco</t>
@@ -6279,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Tepetitla De Lardizábal</t>
@@ -6292,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Tepeyanco</t>
@@ -6305,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Tetla De La Solidaridad</t>
@@ -6318,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Tetlatlahuca</t>
@@ -6331,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -6344,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Totolac</t>
@@ -6357,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Tzompantepec</t>
@@ -6370,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Xicohtzinco</t>
@@ -6383,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -6396,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6427,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -6440,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -6453,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Alvarado</t>
@@ -6466,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -6479,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Chicontepec</t>
@@ -6492,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -6505,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -6518,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Gutiérrez Zamora</t>
@@ -6531,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -6544,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -6557,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -6570,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -6583,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Ixhuatlán De Madero</t>
@@ -6596,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Jáltipan</t>
@@ -6609,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -6622,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -6635,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -6648,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -6661,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -6674,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -6687,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -6700,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -6713,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Moloacán</t>
@@ -6726,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Nautla</t>
@@ -6739,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -6752,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Otatitlán</t>
@@ -6765,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -6778,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Perote</t>
@@ -6791,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -6804,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Rafael Lucio</t>
@@ -6817,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -6830,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Tempoal</t>
@@ -6843,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Tenampa</t>
@@ -6856,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -6869,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -6882,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -6895,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Ursulo Galván</t>
@@ -6908,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -6921,6 +9236,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -6934,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6965,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Oxkutzcab</t>
@@ -6978,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7009,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -7022,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>Total</t>
